--- a/engines/tests/excel/Location3_Zagreb.xlsx
+++ b/engines/tests/excel/Location3_Zagreb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p96677wk\Dropbox (The University of Manchester)\My PC (E-10LPC1N2L4S)\Desktop\ATTEST\Tool3.2\ATTEST_Tool3.2\engines\tests\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CB376-378C-4BAF-B3EE-FF35F6E3AE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E691FC-8BFF-4AFF-9C99-8026DD3571D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="2565" windowWidth="20610" windowHeight="11685" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load P (MW)" sheetId="10" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +173,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +531,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +686,7 @@
         <v>-145.9</v>
       </c>
       <c r="T2" s="7">
-        <v>159.4</v>
+        <v>-159.4</v>
       </c>
       <c r="U2" s="1">
         <v>-155.80000000000001</v>
@@ -769,7 +762,7 @@
       <c r="S3" s="1">
         <v>3.2</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <v>-6.2</v>
       </c>
       <c r="U3" s="1">
@@ -1231,7 +1224,7 @@
       <c r="S9" s="1">
         <v>0.3</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>0.3</v>
       </c>
       <c r="U9" s="1">
@@ -1338,8 +1331,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
